--- a/doc/Projekti Aikataulu.xlsx
+++ b/doc/Projekti Aikataulu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaLataukset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viksterikap\Desktop\projekti\tiimi4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67ACB9-E28D-40C5-B3DF-DDCC842CF22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1715AB46-47CE-4805-BD3E-D88ECD317E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="4860" windowWidth="28800" windowHeight="15435" xr2:uid="{2E7B5D17-045D-42BF-A6A8-F409BE11BFF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2E7B5D17-045D-42BF-A6A8-F409BE11BFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Aaro</t>
   </si>
@@ -80,47 +80,50 @@
     <t>fysiikkamoottori</t>
   </si>
   <si>
-    <t>collision</t>
-  </si>
-  <si>
     <t>gravity</t>
   </si>
   <si>
     <t>äänet</t>
   </si>
   <si>
-    <t>level editor</t>
-  </si>
-  <si>
-    <t>networking</t>
-  </si>
-  <si>
     <t>architecture</t>
   </si>
   <si>
-    <t>android support?</t>
-  </si>
-  <si>
     <t>Demot</t>
   </si>
   <si>
-    <t>scene saving</t>
-  </si>
-  <si>
-    <t>Kaikki/päätettävissä</t>
-  </si>
-  <si>
     <t>demo1</t>
   </si>
   <si>
     <t>demo2</t>
+  </si>
+  <si>
+    <t>Sprite sheet splicing</t>
+  </si>
+  <si>
+    <t>Test Platform</t>
+  </si>
+  <si>
+    <t>ECS implentation</t>
+  </si>
+  <si>
+    <t>eri osa-alueiden testaus</t>
+  </si>
+  <si>
+    <t>Useampi/avoin</t>
+  </si>
+  <si>
+    <t>Basic level editor</t>
+  </si>
+  <si>
+    <t>scene saving(level editor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +131,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,12 +153,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -169,6 +172,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -193,10 +208,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9001F35B-7169-4541-84A2-26D4CA423ADB}">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,21 +544,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -568,140 +586,170 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
